--- a/web/Statistik/Team/Template Excel Team CTH.xlsx
+++ b/web/Statistik/Team/Template Excel Team CTH.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Otong" r:id="rId3" sheetId="1"/>
-    <sheet name="Atang" r:id="rId4" sheetId="2"/>
-    <sheet name="qwe" r:id="rId5" sheetId="3"/>
-    <sheet name="y" r:id="rId6" sheetId="4"/>
-    <sheet name="treretre" r:id="rId7" sheetId="5"/>
-    <sheet name="gfdgdf" r:id="rId8" sheetId="6"/>
-    <sheet name="qwert" r:id="rId9" sheetId="7"/>
+    <sheet name="Atang" r:id="rId3" sheetId="1"/>
+    <sheet name="gfdgdf" r:id="rId4" sheetId="2"/>
+    <sheet name="Otong" r:id="rId5" sheetId="3"/>
+    <sheet name="qwe" r:id="rId6" sheetId="4"/>
+    <sheet name="qwert" r:id="rId7" sheetId="5"/>
+    <sheet name="treretre" r:id="rId8" sheetId="6"/>
+    <sheet name="y" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
@@ -23,109 +23,109 @@
     <t>ID_Pemain</t>
   </si>
   <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Dont Delete This!</t>
+  </si>
+  <si>
+    <t>GAME LOGS</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>W/L</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>FGM</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>FG%</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>2PA</t>
+  </si>
+  <si>
+    <t>2P%</t>
+  </si>
+  <si>
+    <t>3PM</t>
+  </si>
+  <si>
+    <t>3PA</t>
+  </si>
+  <si>
+    <t>3P%</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>FTA</t>
+  </si>
+  <si>
+    <t>FT%</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>201</t>
   </si>
   <si>
-    <t>Dont Delete This!</t>
-  </si>
-  <si>
-    <t>GAME LOGS</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>MATCH</t>
-  </si>
-  <si>
-    <t>W/L</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>FGM</t>
-  </si>
-  <si>
-    <t>FGA</t>
-  </si>
-  <si>
-    <t>FG%</t>
-  </si>
-  <si>
-    <t>2PM</t>
-  </si>
-  <si>
-    <t>2PA</t>
-  </si>
-  <si>
-    <t>2P%</t>
-  </si>
-  <si>
-    <t>3PM</t>
-  </si>
-  <si>
-    <t>3PA</t>
-  </si>
-  <si>
-    <t>3P%</t>
-  </si>
-  <si>
-    <t>FTM</t>
-  </si>
-  <si>
-    <t>FTA</t>
-  </si>
-  <si>
-    <t>FT%</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
     <t>205</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
     <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
   </si>
 </sst>
 </file>

--- a/web/Statistik/Team/Template Excel Team CTH.xlsx
+++ b/web/Statistik/Team/Template Excel Team CTH.xlsx
@@ -295,7 +295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" zoomScale="85"/>
+    <sheetView workbookViewId="0" tabSelected="true" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -436,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
+    <sheetView workbookViewId="0" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
+    <sheetView workbookViewId="0" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -718,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
+    <sheetView workbookViewId="0" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
+    <sheetView workbookViewId="0" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -1000,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
+    <sheetView workbookViewId="0" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -1141,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85"/>
+    <sheetView workbookViewId="0" zoomScale="75"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
